--- a/Review_Functions.xlsx
+++ b/Review_Functions.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroaz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroaz/Downloads/Excel_All/Excel_HW_To_Do/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C15CA-B588-3A48-B0CE-327D708ECBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84567A26-8340-8848-86BE-97FDE5A93A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23620" yWindow="460" windowWidth="24220" windowHeight="19360" xr2:uid="{55084DCD-E806-0F42-BE00-80302031A7E5}"/>
+    <workbookView xWindow="12580" yWindow="1060" windowWidth="25700" windowHeight="20940" xr2:uid="{55084DCD-E806-0F42-BE00-80302031A7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -464,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -481,6 +481,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4577ABEC-88EA-0748-8422-CB6530DC7BB3}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1188,7 +1190,7 @@
       </c>
       <c r="C32" s="11">
         <f ca="1">NOW()</f>
-        <v>43747.417900347224</v>
+        <v>43748.502733449073</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1500,7 +1502,7 @@
       </c>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -1509,7 +1511,7 @@
       </c>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>78</v>
       </c>
@@ -1518,22 +1520,29 @@
       </c>
       <c r="C66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
       <c r="B67">
         <v>65</v>
       </c>
-      <c r="C67" s="1">
-        <f>TRUNC(D67,1)</f>
-        <v>456.6</v>
-      </c>
-      <c r="D67">
-        <v>456.678</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="13">
+        <f>TRUNC(D67,2)</f>
+        <v>456.67</v>
+      </c>
+      <c r="D67" s="12">
+        <v>456.67099999999999</v>
+      </c>
+      <c r="E67">
+        <v>456.67</v>
+      </c>
+      <c r="F67" t="b">
+        <f>C67=D67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -1542,10 +1551,10 @@
       </c>
       <c r="C68" s="1">
         <f ca="1">RAND()</f>
-        <v>0.32059366958422819</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.11746673205845537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -1554,7 +1563,7 @@
       </c>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -1563,7 +1572,7 @@
       </c>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -1572,7 +1581,7 @@
       </c>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>84</v>
       </c>
@@ -1581,7 +1590,7 @@
       </c>
       <c r="C72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -1590,7 +1599,7 @@
       </c>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -1599,7 +1608,7 @@
       </c>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -1608,7 +1617,7 @@
       </c>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>88</v>
       </c>
@@ -1617,7 +1626,7 @@
       </c>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -1626,7 +1635,7 @@
       </c>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -1635,16 +1644,19 @@
       </c>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
       <c r="B79">
         <v>77</v>
       </c>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C79" s="1">
+        <f>MIN(B69:B79,B57:B63)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>92</v>
       </c>
